--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H2">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.5866363555371</v>
+        <v>73.91316300000001</v>
       </c>
       <c r="N2">
-        <v>57.5866363555371</v>
+        <v>221.739489</v>
       </c>
       <c r="O2">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809399</v>
       </c>
       <c r="P2">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809398</v>
       </c>
       <c r="Q2">
-        <v>2144.27020608911</v>
+        <v>33967.19042830545</v>
       </c>
       <c r="R2">
-        <v>2144.27020608911</v>
+        <v>305704.713854749</v>
       </c>
       <c r="S2">
-        <v>0.5497864211774308</v>
+        <v>0.6080130507702993</v>
       </c>
       <c r="T2">
-        <v>0.5497864211774308</v>
+        <v>0.6080130507702992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H3">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2969331831618</v>
+        <v>31.40056566666667</v>
       </c>
       <c r="N3">
-        <v>31.2969331831618</v>
+        <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="P3">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="Q3">
-        <v>1165.358590355708</v>
+        <v>14430.29834288348</v>
       </c>
       <c r="R3">
-        <v>1165.358590355708</v>
+        <v>129872.6850859513</v>
       </c>
       <c r="S3">
-        <v>0.2987955188486234</v>
+        <v>0.2583024856736697</v>
       </c>
       <c r="T3">
-        <v>0.2987955188486234</v>
+        <v>0.2583024856736697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H4">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.8600802448092</v>
+        <v>15.928304</v>
       </c>
       <c r="N4">
-        <v>15.8600802448092</v>
+        <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="P4">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="Q4">
-        <v>590.5588464164023</v>
+        <v>7319.937521384917</v>
       </c>
       <c r="R4">
-        <v>590.5588464164023</v>
+        <v>65879.43769246426</v>
       </c>
       <c r="S4">
-        <v>0.1514180599739458</v>
+        <v>0.131026955356203</v>
       </c>
       <c r="T4">
-        <v>0.1514180599739458</v>
+        <v>0.131026955356203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.673579</v>
+      </c>
+      <c r="I5">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J5">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>73.91316300000001</v>
+      </c>
+      <c r="N5">
+        <v>221.739489</v>
+      </c>
+      <c r="O5">
+        <v>0.6096331558809399</v>
+      </c>
+      <c r="P5">
+        <v>0.6096331558809398</v>
+      </c>
+      <c r="Q5">
+        <v>90.50861447345902</v>
+      </c>
+      <c r="R5">
+        <v>814.5775302611311</v>
+      </c>
+      <c r="S5">
+        <v>0.001620105110640616</v>
+      </c>
+      <c r="T5">
+        <v>0.001620105110640616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.673579</v>
+      </c>
+      <c r="I6">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J6">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>31.40056566666667</v>
+      </c>
+      <c r="N6">
+        <v>94.201697</v>
+      </c>
+      <c r="O6">
+        <v>0.2589907557307037</v>
+      </c>
+      <c r="P6">
+        <v>0.2589907557307037</v>
+      </c>
+      <c r="Q6">
+        <v>38.45081954039589</v>
+      </c>
+      <c r="R6">
+        <v>346.057375863563</v>
+      </c>
+      <c r="S6">
+        <v>0.0006882700570339943</v>
+      </c>
+      <c r="T6">
+        <v>0.0006882700570339943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.673579</v>
+      </c>
+      <c r="I7">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J7">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.928304</v>
+      </c>
+      <c r="N7">
+        <v>47.784912</v>
+      </c>
+      <c r="O7">
+        <v>0.1313760883883564</v>
+      </c>
+      <c r="P7">
+        <v>0.1313760883883564</v>
+      </c>
+      <c r="Q7">
+        <v>19.50462769333867</v>
+      </c>
+      <c r="R7">
+        <v>175.541649240048</v>
+      </c>
+      <c r="S7">
+        <v>0.0003491330321533847</v>
+      </c>
+      <c r="T7">
+        <v>0.0003491330321533847</v>
       </c>
     </row>
   </sheetData>
